--- a/Results/Scenario2/Scenario2_Fuzzy_evaluation_results.xlsx
+++ b/Results/Scenario2/Scenario2_Fuzzy_evaluation_results.xlsx
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P3" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q3" t="n">
         <v>0.4263565635646952</v>
@@ -697,7 +697,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P7" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q7" t="n">
         <v>0.4263565635646952</v>
@@ -933,7 +933,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P11" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q11" t="n">
         <v>0.4263565635646952</v>
@@ -1169,7 +1169,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P15" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q15" t="n">
         <v>0.4263565635646952</v>
@@ -1405,7 +1405,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P19" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q19" t="n">
         <v>0.4263565635646952</v>
@@ -1641,7 +1641,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P23" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q23" t="n">
         <v>0.4263565635646952</v>
@@ -1877,7 +1877,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P27" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q27" t="n">
         <v>0.4263565635646952</v>
@@ -2113,7 +2113,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P31" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q31" t="n">
         <v>0.4263565635646952</v>
@@ -2349,7 +2349,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2401,7 +2401,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P35" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q35" t="n">
         <v>0.4263565635646952</v>
@@ -2585,7 +2585,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P39" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q39" t="n">
         <v>0.4263565635646952</v>
@@ -2821,7 +2821,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P43" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q43" t="n">
         <v>0.4263565635646952</v>
@@ -3057,7 +3057,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P47" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q47" t="n">
         <v>0.4263565635646952</v>
@@ -3293,7 +3293,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P51" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q51" t="n">
         <v>0.4263565635646952</v>
@@ -3529,7 +3529,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P55" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q55" t="n">
         <v>0.4263565635646952</v>
@@ -3765,7 +3765,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P59" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q59" t="n">
         <v>0.4263565635646952</v>
@@ -4001,7 +4001,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P63" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q63" t="n">
         <v>0.4263565635646952</v>
@@ -4237,7 +4237,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P67" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q67" t="n">
         <v>0.4263565635646952</v>
@@ -4473,7 +4473,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -4525,7 +4525,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P71" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q71" t="n">
         <v>0.4263565635646952</v>
@@ -4709,7 +4709,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -4761,7 +4761,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P75" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q75" t="n">
         <v>0.4263565635646952</v>
@@ -4945,7 +4945,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -4997,7 +4997,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P79" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q79" t="n">
         <v>0.4263565635646952</v>
@@ -5181,7 +5181,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P83" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q83" t="n">
         <v>0.4263565635646952</v>
@@ -5417,7 +5417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P87" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q87" t="n">
         <v>0.4263565635646952</v>
@@ -5653,7 +5653,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P91" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q91" t="n">
         <v>0.4263565635646952</v>
@@ -5889,7 +5889,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -5941,7 +5941,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P95" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q95" t="n">
         <v>0.4263565635646952</v>
@@ -6125,7 +6125,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -6177,7 +6177,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P99" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q99" t="n">
         <v>0.4263565635646952</v>
@@ -6361,7 +6361,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -6413,7 +6413,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P103" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q103" t="n">
         <v>0.4263565635646952</v>
@@ -6597,7 +6597,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -6649,7 +6649,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9003929215871557</v>
+        <v>0.8737139994656694</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>7.499999999999991</v>
+        <v>7.997767674786337</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.9003929215871557</v>
+        <v>0.8737139994656694</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P107" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q107" t="n">
         <v>0.4263565635646952</v>
@@ -6833,7 +6833,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -6885,7 +6885,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P111" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q111" t="n">
         <v>0.4263565635646952</v>
@@ -7069,7 +7069,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P115" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q115" t="n">
         <v>0.4263565635646952</v>
@@ -7305,7 +7305,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P119" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q119" t="n">
         <v>0.4263565635646952</v>
@@ -7541,7 +7541,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P123" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q123" t="n">
         <v>0.4263565635646952</v>
@@ -7777,7 +7777,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
@@ -7829,7 +7829,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P127" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q127" t="n">
         <v>0.4263565635646952</v>
@@ -8013,7 +8013,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -8065,7 +8065,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P131" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q131" t="n">
         <v>0.4263565635646952</v>
@@ -8249,7 +8249,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P135" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q135" t="n">
         <v>0.4263565635646952</v>
@@ -8485,7 +8485,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P139" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q139" t="n">
         <v>0.4263565635646952</v>
@@ -8721,7 +8721,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -8773,7 +8773,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P143" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q143" t="n">
         <v>0.4263565635646952</v>
@@ -8957,7 +8957,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P147" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q147" t="n">
         <v>0.4263565635646952</v>
@@ -9193,7 +9193,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
@@ -9377,7 +9377,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P151" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q151" t="n">
         <v>0.4263565635646952</v>
@@ -9429,7 +9429,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P155" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q155" t="n">
         <v>0.4263565635646952</v>
@@ -9665,7 +9665,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="P158" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P159" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q159" t="n">
         <v>0.4263565635646952</v>
@@ -9901,7 +9901,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="P162" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P163" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q163" t="n">
         <v>0.4263565635646952</v>
@@ -10137,7 +10137,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
@@ -10189,7 +10189,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="P166" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P167" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q167" t="n">
         <v>0.4263565635646952</v>
@@ -10373,7 +10373,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q168" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="P170" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P171" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q171" t="n">
         <v>0.4263565635646952</v>
@@ -10609,7 +10609,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q172" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="P174" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q174" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P175" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q175" t="n">
         <v>0.4263565635646952</v>
@@ -10845,7 +10845,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
@@ -10897,7 +10897,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="P178" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q178" t="n">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P179" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q179" t="n">
         <v>0.4263565635646952</v>
@@ -11081,7 +11081,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q180" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="P182" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P183" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q183" t="n">
         <v>0.4263565635646952</v>
@@ -11317,7 +11317,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
@@ -11369,7 +11369,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="P186" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
@@ -11501,7 +11501,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P187" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q187" t="n">
         <v>0.4263565635646952</v>
@@ -11553,7 +11553,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -11605,7 +11605,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0.8634292929292926</v>
+        <v>0.9003929215871557</v>
       </c>
       <c r="L190" t="n">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="n">
-        <v>7.500000000000015</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q190" t="n">
         <v>0</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>0.8634292929292926</v>
+        <v>0.9003929215871557</v>
       </c>
       <c r="T190" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P191" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q191" t="n">
         <v>0.4263565635646952</v>
@@ -11789,7 +11789,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q192" t="n">
         <v>0</v>
@@ -11841,7 +11841,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q194" t="n">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P195" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q195" t="n">
         <v>0.4263565635646952</v>
@@ -12025,7 +12025,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
@@ -12077,7 +12077,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P199" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q199" t="n">
         <v>0.4263565635646952</v>
@@ -12261,7 +12261,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
@@ -12313,7 +12313,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="P202" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
@@ -12445,7 +12445,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P203" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q203" t="n">
         <v>0.4263565635646952</v>
@@ -12497,7 +12497,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
@@ -12549,7 +12549,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="P206" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q206" t="n">
         <v>0</v>
@@ -12681,7 +12681,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P207" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q207" t="n">
         <v>0.4263565635646952</v>
@@ -12733,7 +12733,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q208" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="P210" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q210" t="n">
         <v>0</v>
@@ -12917,7 +12917,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P211" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q211" t="n">
         <v>0.4263565635646952</v>
@@ -12969,7 +12969,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
@@ -13021,7 +13021,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="P214" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q214" t="n">
         <v>0</v>
@@ -13153,7 +13153,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P215" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q215" t="n">
         <v>0.4263565635646952</v>
@@ -13205,7 +13205,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q216" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="P218" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q218" t="n">
         <v>0</v>
@@ -13389,7 +13389,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P219" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q219" t="n">
         <v>0.4263565635646952</v>
@@ -13441,7 +13441,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q220" t="n">
         <v>0</v>
@@ -13493,7 +13493,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
@@ -13625,7 +13625,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P223" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q223" t="n">
         <v>0.4263565635646952</v>
@@ -13677,7 +13677,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
@@ -13729,7 +13729,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="P226" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q226" t="n">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P227" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q227" t="n">
         <v>0.4263565635646952</v>
@@ -13913,7 +13913,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q228" t="n">
         <v>0</v>
@@ -13965,7 +13965,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q230" t="n">
         <v>0</v>
@@ -14097,7 +14097,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P231" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q231" t="n">
         <v>0.4263565635646952</v>
@@ -14149,7 +14149,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q232" t="n">
         <v>0</v>
@@ -14201,7 +14201,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="P234" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q234" t="n">
         <v>0</v>
@@ -14333,7 +14333,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P235" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q235" t="n">
         <v>0.4263565635646952</v>
@@ -14385,7 +14385,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q236" t="n">
         <v>0</v>
@@ -14437,7 +14437,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="P238" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q238" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P239" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q239" t="n">
         <v>0.4263565635646952</v>
@@ -14621,7 +14621,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q240" t="n">
         <v>0</v>
@@ -14673,7 +14673,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="P242" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q242" t="n">
         <v>0</v>
@@ -14805,7 +14805,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P243" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q243" t="n">
         <v>0.4263565635646952</v>
@@ -14857,7 +14857,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q244" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="P246" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q246" t="n">
         <v>0</v>
@@ -15041,7 +15041,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P247" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q247" t="n">
         <v>0.4263565635646952</v>
@@ -15093,7 +15093,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q248" t="n">
         <v>0</v>
@@ -15145,7 +15145,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="P250" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q250" t="n">
         <v>0</v>
@@ -15277,7 +15277,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P251" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q251" t="n">
         <v>0.4263565635646952</v>
@@ -15329,7 +15329,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q252" t="n">
         <v>0</v>
@@ -15381,7 +15381,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -15447,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
@@ -15513,7 +15513,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P255" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q255" t="n">
         <v>0.4263565635646952</v>
@@ -15565,7 +15565,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q256" t="n">
         <v>0</v>
@@ -15617,7 +15617,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q258" t="n">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P259" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q259" t="n">
         <v>0.4263565635646952</v>
@@ -15801,7 +15801,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q260" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q262" t="n">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P263" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q263" t="n">
         <v>0.4263565635646952</v>
@@ -16037,7 +16037,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q264" t="n">
         <v>0</v>
@@ -16089,7 +16089,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="P266" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q266" t="n">
         <v>0</v>
@@ -16221,7 +16221,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P267" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q267" t="n">
         <v>0.4263565635646952</v>
@@ -16273,7 +16273,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q268" t="n">
         <v>0</v>
@@ -16325,7 +16325,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="P270" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q270" t="n">
         <v>0</v>
@@ -16457,7 +16457,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P271" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q271" t="n">
         <v>0.4263565635646952</v>
@@ -16509,7 +16509,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q272" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -16627,7 +16627,7 @@
         <v>0</v>
       </c>
       <c r="P274" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P275" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q275" t="n">
         <v>0.4263565635646952</v>
@@ -16745,7 +16745,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q276" t="n">
         <v>0</v>
@@ -16797,7 +16797,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="P278" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q278" t="n">
         <v>0</v>
@@ -16929,7 +16929,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P279" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q279" t="n">
         <v>0.4263565635646952</v>
@@ -16981,7 +16981,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q280" t="n">
         <v>0</v>
@@ -17033,7 +17033,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q282" t="n">
         <v>0</v>
@@ -17165,7 +17165,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P283" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q283" t="n">
         <v>0.4263565635646952</v>
@@ -17217,7 +17217,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q284" t="n">
         <v>0</v>
@@ -17269,7 +17269,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="P286" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q286" t="n">
         <v>0</v>
@@ -17401,7 +17401,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P287" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q287" t="n">
         <v>0.4263565635646952</v>
@@ -17453,7 +17453,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q288" t="n">
         <v>0</v>
@@ -17505,7 +17505,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q290" t="n">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P291" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q291" t="n">
         <v>0.4263565635646952</v>
@@ -17689,7 +17689,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q292" t="n">
         <v>0</v>
@@ -17741,7 +17741,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q294" t="n">
         <v>0</v>
@@ -17873,7 +17873,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P295" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q295" t="n">
         <v>0.4263565635646952</v>
@@ -17925,7 +17925,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q296" t="n">
         <v>0</v>
@@ -17977,7 +17977,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -18043,7 +18043,7 @@
         <v>0</v>
       </c>
       <c r="P298" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q298" t="n">
         <v>0</v>
@@ -18109,7 +18109,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P299" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q299" t="n">
         <v>0.4263565635646952</v>
@@ -18161,7 +18161,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q300" t="n">
         <v>0</v>
@@ -18213,7 +18213,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="P302" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q302" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P303" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q303" t="n">
         <v>0.4263565635646952</v>
@@ -18397,7 +18397,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q304" t="n">
         <v>0</v>
@@ -18449,7 +18449,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q306" t="n">
         <v>0</v>
@@ -18581,7 +18581,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P307" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q307" t="n">
         <v>0.4263565635646952</v>
@@ -18633,7 +18633,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q308" t="n">
         <v>0</v>
@@ -18685,7 +18685,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="P310" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q310" t="n">
         <v>0</v>
@@ -18817,7 +18817,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P311" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q311" t="n">
         <v>0.4263565635646952</v>
@@ -18869,7 +18869,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q312" t="n">
         <v>0</v>
@@ -18921,7 +18921,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="P314" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q314" t="n">
         <v>0</v>
@@ -19053,7 +19053,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P315" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q315" t="n">
         <v>0.4263565635646952</v>
@@ -19105,7 +19105,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q316" t="n">
         <v>0</v>
@@ -19157,7 +19157,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="P318" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q318" t="n">
         <v>0</v>
@@ -19289,7 +19289,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P319" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q319" t="n">
         <v>0.4263565635646952</v>
@@ -19341,7 +19341,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q320" t="n">
         <v>0</v>
@@ -19393,7 +19393,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -19459,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="P322" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q322" t="n">
         <v>0</v>
@@ -19525,7 +19525,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P323" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q323" t="n">
         <v>0.4263565635646952</v>
@@ -19577,7 +19577,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q324" t="n">
         <v>0</v>
@@ -19629,7 +19629,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -19695,7 +19695,7 @@
         <v>0</v>
       </c>
       <c r="P326" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q326" t="n">
         <v>0</v>
@@ -19761,7 +19761,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P327" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q327" t="n">
         <v>0.4263565635646952</v>
@@ -19813,7 +19813,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q328" t="n">
         <v>0</v>
@@ -19865,7 +19865,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="P330" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q330" t="n">
         <v>0</v>
@@ -19997,7 +19997,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P331" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q331" t="n">
         <v>0.4263565635646952</v>
@@ -20049,7 +20049,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q332" t="n">
         <v>0</v>
@@ -20101,7 +20101,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="P334" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q334" t="n">
         <v>0</v>
@@ -20233,7 +20233,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P335" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q335" t="n">
         <v>0.4263565635646952</v>
@@ -20285,7 +20285,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q336" t="n">
         <v>0</v>
@@ -20337,7 +20337,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="P338" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q338" t="n">
         <v>0</v>
@@ -20469,7 +20469,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P339" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q339" t="n">
         <v>0.4263565635646952</v>
@@ -20521,7 +20521,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q340" t="n">
         <v>0</v>
@@ -20573,7 +20573,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -20639,7 +20639,7 @@
         <v>0</v>
       </c>
       <c r="P342" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q342" t="n">
         <v>0</v>
@@ -20705,7 +20705,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P343" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q343" t="n">
         <v>0.4263565635646952</v>
@@ -20757,7 +20757,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q344" t="n">
         <v>0</v>
@@ -20809,7 +20809,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -20875,7 +20875,7 @@
         <v>0</v>
       </c>
       <c r="P346" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q346" t="n">
         <v>0</v>
@@ -20941,7 +20941,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P347" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q347" t="n">
         <v>0.4263565635646952</v>
@@ -20993,7 +20993,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q348" t="n">
         <v>0</v>
@@ -21045,7 +21045,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="P350" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q350" t="n">
         <v>0</v>
@@ -21177,7 +21177,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P351" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q351" t="n">
         <v>0.4263565635646952</v>
@@ -21229,7 +21229,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q352" t="n">
         <v>0</v>
@@ -21281,7 +21281,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -21347,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="P354" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q354" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P355" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q355" t="n">
         <v>0.4263565635646952</v>
@@ -21465,7 +21465,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q356" t="n">
         <v>0</v>
@@ -21517,7 +21517,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>0</v>
       </c>
       <c r="P358" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q358" t="n">
         <v>0</v>
@@ -21649,7 +21649,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P359" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q359" t="n">
         <v>0.4263565635646952</v>
@@ -21701,7 +21701,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q360" t="n">
         <v>0</v>
@@ -21753,7 +21753,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -21819,7 +21819,7 @@
         <v>0</v>
       </c>
       <c r="P362" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q362" t="n">
         <v>0</v>
@@ -21885,7 +21885,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P363" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q363" t="n">
         <v>0.4263565635646952</v>
@@ -21937,7 +21937,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q364" t="n">
         <v>0</v>
@@ -21989,7 +21989,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="P366" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q366" t="n">
         <v>0</v>
@@ -22121,7 +22121,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P367" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q367" t="n">
         <v>0.4263565635646952</v>
@@ -22173,7 +22173,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q368" t="n">
         <v>0</v>
@@ -22225,7 +22225,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="P370" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q370" t="n">
         <v>0</v>
@@ -22357,7 +22357,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P371" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q371" t="n">
         <v>0.4263565635646952</v>
@@ -22409,7 +22409,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q372" t="n">
         <v>0</v>
@@ -22461,7 +22461,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -22527,7 +22527,7 @@
         <v>0</v>
       </c>
       <c r="P374" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q374" t="n">
         <v>0</v>
@@ -22593,7 +22593,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P375" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q375" t="n">
         <v>0.4263565635646952</v>
@@ -22645,7 +22645,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q376" t="n">
         <v>0</v>
@@ -22697,7 +22697,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -22763,7 +22763,7 @@
         <v>0</v>
       </c>
       <c r="P378" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q378" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P379" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q379" t="n">
         <v>0.4263565635646952</v>
@@ -22881,7 +22881,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q380" t="n">
         <v>0</v>
@@ -22933,7 +22933,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q382" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P383" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q383" t="n">
         <v>0.4263565635646952</v>
@@ -23117,7 +23117,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q384" t="n">
         <v>0</v>
@@ -23169,7 +23169,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="P386" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q386" t="n">
         <v>0</v>
@@ -23301,7 +23301,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P387" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q387" t="n">
         <v>0.4263565635646952</v>
@@ -23353,7 +23353,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q388" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -23471,7 +23471,7 @@
         <v>0</v>
       </c>
       <c r="P390" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q390" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P391" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q391" t="n">
         <v>0.4263565635646952</v>
@@ -23589,7 +23589,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q392" t="n">
         <v>0</v>
@@ -23641,7 +23641,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="P394" t="n">
-        <v>7.499999999999991</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q394" t="n">
         <v>0</v>
@@ -23773,7 +23773,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P395" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q395" t="n">
         <v>0.4263565635646952</v>
@@ -23825,7 +23825,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q396" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>0.8932717077087793</v>
+        <v>0.9003929215871557</v>
       </c>
       <c r="L398" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="P398" t="n">
-        <v>7.499999999999996</v>
+        <v>8.010827330282758</v>
       </c>
       <c r="Q398" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>0.8932717077087793</v>
+        <v>0.9003929215871557</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>0.4263565635646952</v>
       </c>
       <c r="P399" t="n">
-        <v>3.897929149116777</v>
+        <v>3.656818190716698</v>
       </c>
       <c r="Q399" t="n">
         <v>0.4263565635646952</v>
@@ -24061,7 +24061,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr"/>
       <c r="P400" t="n">
-        <v>6.112202063320536</v>
+        <v>6.359831554531095</v>
       </c>
       <c r="Q400" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
-        <v>5.000000000000001</v>
+        <v>5.002857414810582</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
